--- a/Data/Excel_Wide/camino_ages_wide.xlsx
+++ b/Data/Excel_Wide/camino_ages_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,13 +493,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>378</v>
+        <v>756</v>
       </c>
       <c r="E2" t="n">
-        <v>209</v>
+        <v>418</v>
       </c>
       <c r="F2" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>643</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="3">
@@ -524,13 +524,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>635</v>
+        <v>1270</v>
       </c>
       <c r="E3" t="n">
-        <v>716</v>
+        <v>1432</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1401</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="4">
@@ -555,13 +555,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1654</v>
+        <v>3308</v>
       </c>
       <c r="E4" t="n">
-        <v>1264</v>
+        <v>2528</v>
       </c>
       <c r="F4" t="n">
-        <v>187</v>
+        <v>374</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3105</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="5">
@@ -586,13 +586,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>8025</v>
+        <v>16050</v>
       </c>
       <c r="E5" t="n">
-        <v>6545</v>
+        <v>13090</v>
       </c>
       <c r="F5" t="n">
-        <v>984</v>
+        <v>1968</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15554</v>
+        <v>31108</v>
       </c>
     </row>
     <row r="6">
@@ -617,13 +617,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>11374</v>
+        <v>22748</v>
       </c>
       <c r="E6" t="n">
-        <v>2656</v>
+        <v>5312</v>
       </c>
       <c r="F6" t="n">
-        <v>2830</v>
+        <v>5660</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16860</v>
+        <v>33720</v>
       </c>
     </row>
     <row r="7">
@@ -648,13 +648,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>12502</v>
+        <v>25004</v>
       </c>
       <c r="E7" t="n">
-        <v>3975</v>
+        <v>7950</v>
       </c>
       <c r="F7" t="n">
-        <v>2818</v>
+        <v>5636</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>19295</v>
+        <v>38590</v>
       </c>
     </row>
     <row r="8">
@@ -679,13 +679,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>14843</v>
+        <v>29686</v>
       </c>
       <c r="E8" t="n">
-        <v>15289</v>
+        <v>30578</v>
       </c>
       <c r="F8" t="n">
-        <v>1759</v>
+        <v>3518</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>31891</v>
+        <v>63782</v>
       </c>
     </row>
     <row r="9">
@@ -710,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>21715</v>
+        <v>43430</v>
       </c>
       <c r="E9" t="n">
-        <v>22588</v>
+        <v>45176</v>
       </c>
       <c r="F9" t="n">
-        <v>1298</v>
+        <v>2596</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45601</v>
+        <v>91202</v>
       </c>
     </row>
     <row r="10">
@@ -741,13 +741,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>12852</v>
+        <v>25704</v>
       </c>
       <c r="E10" t="n">
-        <v>7565</v>
+        <v>15130</v>
       </c>
       <c r="F10" t="n">
-        <v>2335</v>
+        <v>4670</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22752</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="11">
@@ -772,13 +772,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>8975</v>
+        <v>17950</v>
       </c>
       <c r="E11" t="n">
-        <v>3933</v>
+        <v>7866</v>
       </c>
       <c r="F11" t="n">
-        <v>1648</v>
+        <v>3296</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14556</v>
+        <v>29112</v>
       </c>
     </row>
     <row r="12">
@@ -803,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>3056</v>
+        <v>6112</v>
       </c>
       <c r="E12" t="n">
-        <v>984</v>
+        <v>1968</v>
       </c>
       <c r="F12" t="n">
-        <v>370</v>
+        <v>740</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4410</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="13">
@@ -834,13 +834,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>2543</v>
+        <v>5086</v>
       </c>
       <c r="E13" t="n">
-        <v>1037</v>
+        <v>2074</v>
       </c>
       <c r="F13" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3802</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="14">
@@ -865,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="E14" t="n">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>269</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
@@ -896,13 +896,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>318</v>
+        <v>636</v>
       </c>
       <c r="E15" t="n">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="F15" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>565</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16">
@@ -927,13 +927,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1352</v>
+        <v>2704</v>
       </c>
       <c r="E16" t="n">
-        <v>1677</v>
+        <v>3354</v>
       </c>
       <c r="F16" t="n">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3121</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="17">
@@ -958,13 +958,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>1793</v>
+        <v>3586</v>
       </c>
       <c r="E17" t="n">
-        <v>1042</v>
+        <v>2084</v>
       </c>
       <c r="F17" t="n">
-        <v>472</v>
+        <v>944</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3307</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="18">
@@ -989,13 +989,13 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>5954</v>
+        <v>11908</v>
       </c>
       <c r="E18" t="n">
-        <v>1307</v>
+        <v>2614</v>
       </c>
       <c r="F18" t="n">
-        <v>2049</v>
+        <v>4098</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9310</v>
+        <v>18620</v>
       </c>
     </row>
     <row r="19">
@@ -1020,13 +1020,13 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>7813</v>
+        <v>15626</v>
       </c>
       <c r="E19" t="n">
-        <v>2090</v>
+        <v>4180</v>
       </c>
       <c r="F19" t="n">
-        <v>2716</v>
+        <v>5432</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>12619</v>
+        <v>25238</v>
       </c>
     </row>
     <row r="20">
@@ -1051,13 +1051,13 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>9232</v>
+        <v>18464</v>
       </c>
       <c r="E20" t="n">
-        <v>8368</v>
+        <v>16736</v>
       </c>
       <c r="F20" t="n">
-        <v>1204</v>
+        <v>2408</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>18804</v>
+        <v>37608</v>
       </c>
     </row>
     <row r="21">
@@ -1082,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>14345</v>
+        <v>28690</v>
       </c>
       <c r="E21" t="n">
-        <v>9681</v>
+        <v>19362</v>
       </c>
       <c r="F21" t="n">
-        <v>805</v>
+        <v>1610</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24831</v>
+        <v>49662</v>
       </c>
     </row>
     <row r="22">
@@ -1113,13 +1113,13 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>6905</v>
+        <v>13810</v>
       </c>
       <c r="E22" t="n">
-        <v>3650</v>
+        <v>7300</v>
       </c>
       <c r="F22" t="n">
-        <v>1613</v>
+        <v>3226</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>12168</v>
+        <v>24336</v>
       </c>
     </row>
     <row r="23">
@@ -1144,13 +1144,13 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>4064</v>
+        <v>8128</v>
       </c>
       <c r="E23" t="n">
-        <v>1548</v>
+        <v>3096</v>
       </c>
       <c r="F23" t="n">
-        <v>1261</v>
+        <v>2522</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6873</v>
+        <v>13746</v>
       </c>
     </row>
     <row r="24">
@@ -1175,13 +1175,13 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>907</v>
+        <v>1814</v>
       </c>
       <c r="E24" t="n">
-        <v>341</v>
+        <v>682</v>
       </c>
       <c r="F24" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1388</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="25">
@@ -1206,13 +1206,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>437</v>
+        <v>874</v>
       </c>
       <c r="E25" t="n">
-        <v>202</v>
+        <v>404</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>668</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="26">
@@ -1237,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="E26" t="n">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>324</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27">
@@ -1268,13 +1268,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="E27" t="n">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>351</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28">
@@ -1299,13 +1299,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>535</v>
+        <v>1070</v>
       </c>
       <c r="E28" t="n">
-        <v>493</v>
+        <v>986</v>
       </c>
       <c r="F28" t="n">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1096</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="29">
@@ -1330,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>3635</v>
+        <v>7270</v>
       </c>
       <c r="E29" t="n">
-        <v>3257</v>
+        <v>6514</v>
       </c>
       <c r="F29" t="n">
-        <v>559</v>
+        <v>1118</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7451</v>
+        <v>14902</v>
       </c>
     </row>
     <row r="30">
@@ -1361,13 +1361,13 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>6209</v>
+        <v>12418</v>
       </c>
       <c r="E30" t="n">
-        <v>1418</v>
+        <v>2836</v>
       </c>
       <c r="F30" t="n">
-        <v>2520</v>
+        <v>5040</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10147</v>
+        <v>20294</v>
       </c>
     </row>
     <row r="31">
@@ -1392,13 +1392,13 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>8068</v>
+        <v>16136</v>
       </c>
       <c r="E31" t="n">
-        <v>2069</v>
+        <v>4138</v>
       </c>
       <c r="F31" t="n">
-        <v>2874</v>
+        <v>5748</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13011</v>
+        <v>26022</v>
       </c>
     </row>
     <row r="32">
@@ -1423,13 +1423,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>8970</v>
+        <v>17940</v>
       </c>
       <c r="E32" t="n">
-        <v>8606</v>
+        <v>17212</v>
       </c>
       <c r="F32" t="n">
-        <v>1144</v>
+        <v>2288</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>18720</v>
+        <v>37440</v>
       </c>
     </row>
     <row r="33">
@@ -1454,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>14502</v>
+        <v>29004</v>
       </c>
       <c r="E33" t="n">
-        <v>10793</v>
+        <v>21586</v>
       </c>
       <c r="F33" t="n">
-        <v>888</v>
+        <v>1776</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26183</v>
+        <v>52366</v>
       </c>
     </row>
     <row r="34">
@@ -1485,13 +1485,13 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>7561</v>
+        <v>15122</v>
       </c>
       <c r="E34" t="n">
-        <v>3742</v>
+        <v>7484</v>
       </c>
       <c r="F34" t="n">
-        <v>2167</v>
+        <v>4334</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>13470</v>
+        <v>26940</v>
       </c>
     </row>
     <row r="35">
@@ -1516,13 +1516,13 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>4670</v>
+        <v>9340</v>
       </c>
       <c r="E35" t="n">
-        <v>1583</v>
+        <v>3166</v>
       </c>
       <c r="F35" t="n">
-        <v>1447</v>
+        <v>2894</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7700</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="36">
@@ -1547,13 +1547,13 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>1090</v>
+        <v>2180</v>
       </c>
       <c r="E36" t="n">
-        <v>452</v>
+        <v>904</v>
       </c>
       <c r="F36" t="n">
-        <v>213</v>
+        <v>426</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1755</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="37">
@@ -1578,13 +1578,13 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>1146</v>
       </c>
       <c r="E37" t="n">
-        <v>223</v>
+        <v>446</v>
       </c>
       <c r="F37" t="n">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>848</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="38">
@@ -1609,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>231</v>
+        <v>462</v>
       </c>
       <c r="E38" t="n">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39">
@@ -1640,13 +1640,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E39" t="n">
-        <v>321</v>
+        <v>642</v>
       </c>
       <c r="F39" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>665</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="40">
@@ -1671,13 +1671,13 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>735</v>
+        <v>1470</v>
       </c>
       <c r="E40" t="n">
-        <v>812</v>
+        <v>1624</v>
       </c>
       <c r="F40" t="n">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1680</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="41">
@@ -1702,13 +1702,13 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>4484</v>
+        <v>8968</v>
       </c>
       <c r="E41" t="n">
-        <v>2658</v>
+        <v>5316</v>
       </c>
       <c r="F41" t="n">
-        <v>973</v>
+        <v>1946</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8115</v>
+        <v>16230</v>
       </c>
     </row>
     <row r="42">
@@ -1733,13 +1733,13 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>8011</v>
+        <v>16022</v>
       </c>
       <c r="E42" t="n">
-        <v>1693</v>
+        <v>3386</v>
       </c>
       <c r="F42" t="n">
-        <v>3220</v>
+        <v>6440</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>12924</v>
+        <v>25848</v>
       </c>
     </row>
     <row r="43">
@@ -1764,13 +1764,13 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>9395</v>
+        <v>18790</v>
       </c>
       <c r="E43" t="n">
-        <v>2488</v>
+        <v>4976</v>
       </c>
       <c r="F43" t="n">
-        <v>3299</v>
+        <v>6598</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>15182</v>
+        <v>30364</v>
       </c>
     </row>
     <row r="44">
@@ -1795,13 +1795,13 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>9631</v>
+        <v>19262</v>
       </c>
       <c r="E44" t="n">
-        <v>9067</v>
+        <v>18134</v>
       </c>
       <c r="F44" t="n">
-        <v>1458</v>
+        <v>2916</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>20156</v>
+        <v>40312</v>
       </c>
     </row>
     <row r="45">
@@ -1826,13 +1826,13 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>15499</v>
+        <v>30998</v>
       </c>
       <c r="E45" t="n">
-        <v>10679</v>
+        <v>21358</v>
       </c>
       <c r="F45" t="n">
-        <v>1111</v>
+        <v>2222</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>27289</v>
+        <v>54578</v>
       </c>
     </row>
     <row r="46">
@@ -1857,13 +1857,13 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>8829</v>
+        <v>17658</v>
       </c>
       <c r="E46" t="n">
-        <v>3928</v>
+        <v>7856</v>
       </c>
       <c r="F46" t="n">
-        <v>2525</v>
+        <v>5050</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>15282</v>
+        <v>30564</v>
       </c>
     </row>
     <row r="47">
@@ -7484,6 +7484,68 @@
       </c>
       <c r="I227" t="n">
         <v>51356</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D228" t="n">
+        <v>6754</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2269</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2260</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C229" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D229" t="n">
+        <v>3042</v>
+      </c>
+      <c r="E229" t="n">
+        <v>910</v>
+      </c>
+      <c r="F229" t="n">
+        <v>731</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>4683</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_ages_wide.xlsx
+++ b/Data/Excel_Wide/camino_ages_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,13 +493,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>756</v>
+        <v>378</v>
       </c>
       <c r="E2" t="n">
-        <v>418</v>
+        <v>209</v>
       </c>
       <c r="F2" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1286</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3">
@@ -524,13 +524,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1270</v>
+        <v>635</v>
       </c>
       <c r="E3" t="n">
-        <v>1432</v>
+        <v>716</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2802</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4">
@@ -555,13 +555,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3308</v>
+        <v>1654</v>
       </c>
       <c r="E4" t="n">
-        <v>2528</v>
+        <v>1264</v>
       </c>
       <c r="F4" t="n">
-        <v>374</v>
+        <v>187</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6210</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="5">
@@ -586,13 +586,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>16050</v>
+        <v>8025</v>
       </c>
       <c r="E5" t="n">
-        <v>13090</v>
+        <v>6545</v>
       </c>
       <c r="F5" t="n">
-        <v>1968</v>
+        <v>984</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>31108</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="6">
@@ -617,13 +617,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>22748</v>
+        <v>11374</v>
       </c>
       <c r="E6" t="n">
-        <v>5312</v>
+        <v>2656</v>
       </c>
       <c r="F6" t="n">
-        <v>5660</v>
+        <v>2830</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33720</v>
+        <v>16860</v>
       </c>
     </row>
     <row r="7">
@@ -648,13 +648,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>25004</v>
+        <v>12502</v>
       </c>
       <c r="E7" t="n">
-        <v>7950</v>
+        <v>3975</v>
       </c>
       <c r="F7" t="n">
-        <v>5636</v>
+        <v>2818</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>38590</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="8">
@@ -679,13 +679,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>29686</v>
+        <v>14843</v>
       </c>
       <c r="E8" t="n">
-        <v>30578</v>
+        <v>15289</v>
       </c>
       <c r="F8" t="n">
-        <v>3518</v>
+        <v>1759</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>63782</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="9">
@@ -710,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>43430</v>
+        <v>21715</v>
       </c>
       <c r="E9" t="n">
-        <v>45176</v>
+        <v>22588</v>
       </c>
       <c r="F9" t="n">
-        <v>2596</v>
+        <v>1298</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>91202</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="10">
@@ -741,13 +741,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>25704</v>
+        <v>12852</v>
       </c>
       <c r="E10" t="n">
-        <v>15130</v>
+        <v>7565</v>
       </c>
       <c r="F10" t="n">
-        <v>4670</v>
+        <v>2335</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>45504</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="11">
@@ -772,13 +772,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>17950</v>
+        <v>8975</v>
       </c>
       <c r="E11" t="n">
-        <v>7866</v>
+        <v>3933</v>
       </c>
       <c r="F11" t="n">
-        <v>3296</v>
+        <v>1648</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29112</v>
+        <v>14556</v>
       </c>
     </row>
     <row r="12">
@@ -803,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>6112</v>
+        <v>3056</v>
       </c>
       <c r="E12" t="n">
-        <v>1968</v>
+        <v>984</v>
       </c>
       <c r="F12" t="n">
-        <v>740</v>
+        <v>370</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>8820</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="13">
@@ -834,13 +834,13 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>5086</v>
+        <v>2543</v>
       </c>
       <c r="E13" t="n">
-        <v>2074</v>
+        <v>1037</v>
       </c>
       <c r="F13" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>7604</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="14">
@@ -865,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="E14" t="n">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>538</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
@@ -896,13 +896,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>636</v>
+        <v>318</v>
       </c>
       <c r="E15" t="n">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="F15" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1130</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16">
@@ -927,13 +927,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>2704</v>
+        <v>1352</v>
       </c>
       <c r="E16" t="n">
-        <v>3354</v>
+        <v>1677</v>
       </c>
       <c r="F16" t="n">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6242</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="17">
@@ -958,13 +958,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>3586</v>
+        <v>1793</v>
       </c>
       <c r="E17" t="n">
-        <v>2084</v>
+        <v>1042</v>
       </c>
       <c r="F17" t="n">
-        <v>944</v>
+        <v>472</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6614</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="18">
@@ -989,13 +989,13 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>11908</v>
+        <v>5954</v>
       </c>
       <c r="E18" t="n">
-        <v>2614</v>
+        <v>1307</v>
       </c>
       <c r="F18" t="n">
-        <v>4098</v>
+        <v>2049</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>18620</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="19">
@@ -1020,13 +1020,13 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>15626</v>
+        <v>7813</v>
       </c>
       <c r="E19" t="n">
-        <v>4180</v>
+        <v>2090</v>
       </c>
       <c r="F19" t="n">
-        <v>5432</v>
+        <v>2716</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>25238</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="20">
@@ -1051,13 +1051,13 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>18464</v>
+        <v>9232</v>
       </c>
       <c r="E20" t="n">
-        <v>16736</v>
+        <v>8368</v>
       </c>
       <c r="F20" t="n">
-        <v>2408</v>
+        <v>1204</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>37608</v>
+        <v>18804</v>
       </c>
     </row>
     <row r="21">
@@ -1082,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>28690</v>
+        <v>14345</v>
       </c>
       <c r="E21" t="n">
-        <v>19362</v>
+        <v>9681</v>
       </c>
       <c r="F21" t="n">
-        <v>1610</v>
+        <v>805</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>49662</v>
+        <v>24831</v>
       </c>
     </row>
     <row r="22">
@@ -1113,13 +1113,13 @@
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>13810</v>
+        <v>6905</v>
       </c>
       <c r="E22" t="n">
-        <v>7300</v>
+        <v>3650</v>
       </c>
       <c r="F22" t="n">
-        <v>3226</v>
+        <v>1613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>24336</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="23">
@@ -1144,13 +1144,13 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>8128</v>
+        <v>4064</v>
       </c>
       <c r="E23" t="n">
-        <v>3096</v>
+        <v>1548</v>
       </c>
       <c r="F23" t="n">
-        <v>2522</v>
+        <v>1261</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>13746</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="24">
@@ -1175,13 +1175,13 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>1814</v>
+        <v>907</v>
       </c>
       <c r="E24" t="n">
-        <v>682</v>
+        <v>341</v>
       </c>
       <c r="F24" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2776</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25">
@@ -1206,13 +1206,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>874</v>
+        <v>437</v>
       </c>
       <c r="E25" t="n">
-        <v>404</v>
+        <v>202</v>
       </c>
       <c r="F25" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1336</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26">
@@ -1237,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>436</v>
+        <v>218</v>
       </c>
       <c r="E26" t="n">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="F26" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>648</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27">
@@ -1268,13 +1268,13 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>332</v>
+        <v>166</v>
       </c>
       <c r="E27" t="n">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="F27" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>702</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28">
@@ -1299,13 +1299,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>1070</v>
+        <v>535</v>
       </c>
       <c r="E28" t="n">
-        <v>986</v>
+        <v>493</v>
       </c>
       <c r="F28" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2192</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="29">
@@ -1330,13 +1330,13 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>7270</v>
+        <v>3635</v>
       </c>
       <c r="E29" t="n">
-        <v>6514</v>
+        <v>3257</v>
       </c>
       <c r="F29" t="n">
-        <v>1118</v>
+        <v>559</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>14902</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="30">
@@ -1361,13 +1361,13 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>12418</v>
+        <v>6209</v>
       </c>
       <c r="E30" t="n">
-        <v>2836</v>
+        <v>1418</v>
       </c>
       <c r="F30" t="n">
-        <v>5040</v>
+        <v>2520</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20294</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="31">
@@ -1392,13 +1392,13 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>16136</v>
+        <v>8068</v>
       </c>
       <c r="E31" t="n">
-        <v>4138</v>
+        <v>2069</v>
       </c>
       <c r="F31" t="n">
-        <v>5748</v>
+        <v>2874</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>26022</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="32">
@@ -1423,13 +1423,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>17940</v>
+        <v>8970</v>
       </c>
       <c r="E32" t="n">
-        <v>17212</v>
+        <v>8606</v>
       </c>
       <c r="F32" t="n">
-        <v>2288</v>
+        <v>1144</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>37440</v>
+        <v>18720</v>
       </c>
     </row>
     <row r="33">
@@ -1454,13 +1454,13 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>29004</v>
+        <v>14502</v>
       </c>
       <c r="E33" t="n">
-        <v>21586</v>
+        <v>10793</v>
       </c>
       <c r="F33" t="n">
-        <v>1776</v>
+        <v>888</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>52366</v>
+        <v>26183</v>
       </c>
     </row>
     <row r="34">
@@ -1485,13 +1485,13 @@
         <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>15122</v>
+        <v>7561</v>
       </c>
       <c r="E34" t="n">
-        <v>7484</v>
+        <v>3742</v>
       </c>
       <c r="F34" t="n">
-        <v>4334</v>
+        <v>2167</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>26940</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="35">
@@ -1516,13 +1516,13 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>9340</v>
+        <v>4670</v>
       </c>
       <c r="E35" t="n">
-        <v>3166</v>
+        <v>1583</v>
       </c>
       <c r="F35" t="n">
-        <v>2894</v>
+        <v>1447</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>15400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="36">
@@ -1547,13 +1547,13 @@
         <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>2180</v>
+        <v>1090</v>
       </c>
       <c r="E36" t="n">
-        <v>904</v>
+        <v>452</v>
       </c>
       <c r="F36" t="n">
-        <v>426</v>
+        <v>213</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3510</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="37">
@@ -1578,13 +1578,13 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>1146</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>446</v>
+        <v>223</v>
       </c>
       <c r="F37" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1696</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38">
@@ -1609,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>462</v>
+        <v>231</v>
       </c>
       <c r="E38" t="n">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
@@ -1640,13 +1640,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="E39" t="n">
-        <v>642</v>
+        <v>321</v>
       </c>
       <c r="F39" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1330</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40">
@@ -1671,13 +1671,13 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>1470</v>
+        <v>735</v>
       </c>
       <c r="E40" t="n">
-        <v>1624</v>
+        <v>812</v>
       </c>
       <c r="F40" t="n">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3360</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="41">
@@ -1702,13 +1702,13 @@
         <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>8968</v>
+        <v>4484</v>
       </c>
       <c r="E41" t="n">
-        <v>5316</v>
+        <v>2658</v>
       </c>
       <c r="F41" t="n">
-        <v>1946</v>
+        <v>973</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>16230</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="42">
@@ -1733,13 +1733,13 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>16022</v>
+        <v>8011</v>
       </c>
       <c r="E42" t="n">
-        <v>3386</v>
+        <v>1693</v>
       </c>
       <c r="F42" t="n">
-        <v>6440</v>
+        <v>3220</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25848</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="43">
@@ -1764,13 +1764,13 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>18790</v>
+        <v>9395</v>
       </c>
       <c r="E43" t="n">
-        <v>4976</v>
+        <v>2488</v>
       </c>
       <c r="F43" t="n">
-        <v>6598</v>
+        <v>3299</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>30364</v>
+        <v>15182</v>
       </c>
     </row>
     <row r="44">
@@ -1795,13 +1795,13 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>19262</v>
+        <v>9631</v>
       </c>
       <c r="E44" t="n">
-        <v>18134</v>
+        <v>9067</v>
       </c>
       <c r="F44" t="n">
-        <v>2916</v>
+        <v>1458</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40312</v>
+        <v>20156</v>
       </c>
     </row>
     <row r="45">
@@ -1826,13 +1826,13 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>30998</v>
+        <v>15499</v>
       </c>
       <c r="E45" t="n">
-        <v>21358</v>
+        <v>10679</v>
       </c>
       <c r="F45" t="n">
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>54578</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="46">
@@ -1857,13 +1857,13 @@
         <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>17658</v>
+        <v>8829</v>
       </c>
       <c r="E46" t="n">
-        <v>7856</v>
+        <v>3928</v>
       </c>
       <c r="F46" t="n">
-        <v>5050</v>
+        <v>2525</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>30564</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="47">
@@ -7546,6 +7546,37 @@
       </c>
       <c r="I229" t="n">
         <v>4683</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>202301</t>
+        </is>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C230" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1295</v>
+      </c>
+      <c r="E230" t="n">
+        <v>535</v>
+      </c>
+      <c r="F230" t="n">
+        <v>198</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_ages_wide.xlsx
+++ b/Data/Excel_Wide/camino_ages_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7579,6 +7579,37 @@
         <v>2028</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>202302</t>
+        </is>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C231" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
